--- a/cleaningStep.xlsx
+++ b/cleaningStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\karan\interview task\siro\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A72B3-D845-41BF-BEBA-46E14A6E56A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B918E4-4226-43B6-87F8-367F78B2C807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{2CC4BB85-E437-476D-9611-DE3EE428F4B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="10" xr2:uid="{2CC4BB85-E437-476D-9611-DE3EE428F4B1}"/>
   </bookViews>
   <sheets>
     <sheet name="observation" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Features" sheetId="8" r:id="rId8"/>
     <sheet name="Clustering" sheetId="9" r:id="rId9"/>
     <sheet name="persona" sheetId="10" r:id="rId10"/>
+    <sheet name="reasons persona" sheetId="13" r:id="rId11"/>
+    <sheet name="Hierarchical" sheetId="11" r:id="rId12"/>
+    <sheet name="comparison" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="424">
   <si>
     <t>Column</t>
   </si>
@@ -2695,20 +2698,1014 @@
     <t>Persona</t>
   </si>
   <si>
-    <t>Elderly patients, high chronic disease burden, low education, high unemployment, obesity — likely need intensive management and support for trial adherence.</t>
-  </si>
-  <si>
-    <t>Young working adults, healthy physically but high stress and anxiety — prime candidates for behavioral interventions or mental health support trials.</t>
-  </si>
-  <si>
-    <t>Middle-aged, moderate disease burden, mixed socio-economic — balanced group, suitable for lifestyle trials or preventive care trials.</t>
+    <t>k-means</t>
+  </si>
+  <si>
+    <t>Corrected Description</t>
+  </si>
+  <si>
+    <t>Middle-aged (40s), low chronic disease burden, high employment, good education — healthier, stable group.</t>
+  </si>
+  <si>
+    <t>Elderly (~71 years), high stress/anxiety, high unemployment — mental health and social vulnerability.</t>
+  </si>
+  <si>
+    <t>Teenagers/Young (~15 years), low chronic disease, low stress — healthy young group.</t>
+  </si>
+  <si>
+    <t>"Elderly patients (~71 yrs) with significant chronic disease burden (Hypertension, Hyperlipidemia, Diabetes), 
+very high stress and anxiety levels, and high unemployment — prime candidates for mental health interventions and supportive care programs."</t>
+  </si>
+  <si>
+    <t>"Middle-aged working adults (~40 yrs), predominantly employed full-time, well-educated, with relatively low chronic 
+disease burden but moderate overweight and very high stress levels — potential focus on workplace stress reduction and mental health support."</t>
+  </si>
+  <si>
+    <t>"Healthy teenagers (~15 yrs), minimal chronic disease burden, low stress and anxiety, 
+generally low-risk group — suitable for preventive health programs or future risk assessment studies."</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <r>
+      <t>Middle-aged, low disease burden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, working full/part-time, modest income, moderate education.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Small, high-risk wealthy cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — older, higher hypertension/prediabetes rates, 100% employed, high income and coverage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Elderly cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — older adults with chronic diseases (diabetes, hyperlipidemia), high healthcare expenses, decent education.</t>
+    </r>
+  </si>
+  <si>
+    <t>GMM</t>
+  </si>
+  <si>
+    <t>Persona Summary</t>
+  </si>
+  <si>
+    <t>Young, working, low chronic burden, moderate income.</t>
+  </si>
+  <si>
+    <t>Small, high hypertension, high-income niche group.</t>
+  </si>
+  <si>
+    <t>Middle-aged, moderate chronic disease, high employment.</t>
+  </si>
+  <si>
+    <t>Elderly, high expenses, well-educated, chronic disease burden.</t>
+  </si>
+  <si>
+    <t>50s, moderate disease burden, lower education.</t>
+  </si>
+  <si>
+    <t>Tiny rich group with low disease prevalence.</t>
+  </si>
+  <si>
+    <t>Tiny prediabetes-only group, high income — niche Persona.</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Hierarchical</t>
+  </si>
+  <si>
+    <t>Interpretability</t>
+  </si>
+  <si>
+    <t>✅ High (Simple 3 personas)</t>
+  </si>
+  <si>
+    <t>✅ High (Slightly richer)</t>
+  </si>
+  <si>
+    <t>🟡 Medium (7 personas, complex)</t>
+  </si>
+  <si>
+    <t>Clinical Relevance</t>
+  </si>
+  <si>
+    <t>🟡 Moderate (missing nuances like prediabetes-rich clusters)</t>
+  </si>
+  <si>
+    <t>✅ Good (adds wealthy high-risk group)</t>
+  </si>
+  <si>
+    <t>✅✅ Very High (captures rare/niche groups)</t>
+  </si>
+  <si>
+    <t>Granularity</t>
+  </si>
+  <si>
+    <t>🟥 Low (Broad groups)</t>
+  </si>
+  <si>
+    <t>🟡 Moderate (3 groups)</t>
+  </si>
+  <si>
+    <t>✅✅ High (7 meaningful subgroups)</t>
+  </si>
+  <si>
+    <t>Handling Overlaps</t>
+  </si>
+  <si>
+    <t>🟥 Hard partitions</t>
+  </si>
+  <si>
+    <t>✅ Probabilistic (realistic for healthcare overlaps)</t>
+  </si>
+  <si>
+    <t>Small, Rare Groups</t>
+  </si>
+  <si>
+    <t>🟥 Missed</t>
+  </si>
+  <si>
+    <t>✅ Somewhat (1 small wealthy group)</t>
+  </si>
+  <si>
+    <t>✅✅ Captured tiny prediabetes &amp; wealthy low-burden groups</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>✅ Fast and simple</t>
+  </si>
+  <si>
+    <t>🟡 Moderate (complex for large datasets)</t>
+  </si>
+  <si>
+    <t>🟡 Heavy (GMM can be computationally intense)</t>
+  </si>
+  <si>
+    <t>Ease of Explanation</t>
+  </si>
+  <si>
+    <t>✅✅ Easy (good for non-technical stakeholders)</t>
+  </si>
+  <si>
+    <t>✅ Moderate</t>
+  </si>
+  <si>
+    <t>🟡 Harder (7 clusters need more storytelling)</t>
+  </si>
+  <si>
+    <t>✅ K-Means</t>
+  </si>
+  <si>
+    <r>
+      <t>Good for simple personas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Limitations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Too broad — e.g., all middle-aged in one cluster, ignoring disease gradients.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Healthcare personas often need </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nuanced subgroup discovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — not always spherical/symmetric groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When KMeans works</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Early exploration.</t>
+  </si>
+  <si>
+    <t>When you need 3–5 groups for simple marketing/clinical targeting.</t>
+  </si>
+  <si>
+    <t>✅ Hierarchical Clustering</t>
+  </si>
+  <si>
+    <r>
+      <t>Better than KMeans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — captured a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>small high-risk wealthy cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Still 3 clusters — not as rich as real healthcare segmentation would require.</t>
+  </si>
+  <si>
+    <r>
+      <t>Strengths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Easy to explain via dendrograms.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Good for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initial structure discovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good compromise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if simplicity needed but a bit more nuance than KMeans.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅✅ GMM (Gaussian Mixture Model)</t>
+  </si>
+  <si>
+    <r>
+      <t>Superior for healthcare personas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Captures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlapping personas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — realistic (patients can belong to multiple disease groups).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Granularity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — finds both large stable groups and rare, critical subgroups:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tiny </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prediabetes-only group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wealthy but low-disease burden group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Middle-aged moderate chronic disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — different from young working healthy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — 7 groups may overwhelm non-technical audience without careful communication.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Harder to interpret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without good visualization and explanation.</t>
+    </r>
+  </si>
+  <si>
+    <t>🏆 Final Decision (DS Lead Style)</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Verdict</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🥇 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Best</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — captures healthcare reality the best: overlap, fine-grained, rare disease groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🥈 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second</t>
+    </r>
+  </si>
+  <si>
+    <t>Good balance between nuance and simplicity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🥉 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Third</t>
+    </r>
+  </si>
+  <si>
+    <t>KMeans</t>
+  </si>
+  <si>
+    <t>Too broad — misses healthcare nuance but good for simple initial exploration.</t>
+  </si>
+  <si>
+    <t>🎯 Summary</t>
+  </si>
+  <si>
+    <r>
+      <t>GMM is the best choice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It captures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nuances and rare subgroups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> important in healthcare.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It handles </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overlapping memberships</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — patients often fit into multiple clinical risk profiles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It uncovers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tiny but critical groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., high-income prediabetes clusters).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's more aligned with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real-world clinical diversity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — critical for simulations like trial dropout prediction, recruitment strategies.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Conclusion</t>
+  </si>
+  <si>
+    <r>
+      <t>Recommendation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Proceed with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GMM Personas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for clinical trial simulation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Invest time in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good visualization and storytelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to make the 7 Personas understandable to clinicians and business teams.</t>
+    </r>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>**Why (or Why Not) Used in Personas</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Age, Gender</t>
+  </si>
+  <si>
+    <t>Stable over time.</t>
+  </si>
+  <si>
+    <t>Always useful — foundational identity.</t>
+  </si>
+  <si>
+    <t>Chronic Conditions</t>
+  </si>
+  <si>
+    <t>Hypertension, Diabetes</t>
+  </si>
+  <si>
+    <t>Persistent over time.</t>
+  </si>
+  <si>
+    <t>Define patient's long-term health profile.</t>
+  </si>
+  <si>
+    <t>Behavioral Risks</t>
+  </si>
+  <si>
+    <t>Alcohol use, Stress, Anxiety</t>
+  </si>
+  <si>
+    <t>Lifestyle and risk predictors.</t>
+  </si>
+  <si>
+    <t>Affect trial adherence, outcomes — vital for profiling.</t>
+  </si>
+  <si>
+    <t>Social Determinants (SDoH)</t>
+  </si>
+  <si>
+    <t>Employment, Housing, Education</t>
+  </si>
+  <si>
+    <t>Stable social context.</t>
+  </si>
+  <si>
+    <t>Strongly influence healthcare access, adherence.</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>Dental X-ray, Cataract surgery</t>
+  </si>
+  <si>
+    <r>
+      <t>Event-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — one-time intervention.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ Not stable — not who the patient </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but what they </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>had done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Syringe used, CPAP mask</t>
+  </si>
+  <si>
+    <r>
+      <t>Supply-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — one-time use or condition-specific.</t>
+    </r>
+  </si>
+  <si>
+    <t>❌ Sparse, not useful for general profiling — too granular and random.</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Appendectomy, Hip Replacement</t>
+  </si>
+  <si>
+    <r>
+      <t>Event-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — related to treatment.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❌ Important clinically, but for Personas we focus on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identity and risk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not past treatments.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2751,8 +3748,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2771,6 +3776,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2784,7 +3801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2825,6 +3842,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3528,10 +4562,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0AA87-4B35-4329-B6BF-527FDE5C4E3A}">
-  <dimension ref="A4:B7"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3539,36 +4573,797 @@
     <col min="2" max="2" width="110.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" s="7" customFormat="1">
+      <c r="B2" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="14">
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="14">
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="19" customFormat="1"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="20" customFormat="1">
+      <c r="B23" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A62DFA-A267-4B30-AC0C-E54B38A87014}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0965DA5C-69FB-419C-B4CE-C74255350D7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DEE09E-0DE4-4714-8924-E5B6974D0224}">
+  <dimension ref="A2:D108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18">
+      <c r="A55" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="21"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="21"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="21"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.5">
+      <c r="A83" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45">
+      <c r="A86" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30">
+      <c r="A87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="45">
+      <c r="A88" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="31.5">
+      <c r="A91" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="10"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="31.5">
+      <c r="A105" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
